--- a/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业利润总额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业主要财务指标/按国民经济行业分限额以上零售业企业利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1391 +543,839 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.3</v>
+      </c>
       <c r="D2" t="n">
-        <v>16.1842</v>
+        <v>245.9</v>
       </c>
       <c r="E2" t="n">
-        <v>24.8568</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>126.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>400.9</v>
+      </c>
       <c r="G2" t="n">
-        <v>1.0948</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>237.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>561.9</v>
+      </c>
       <c r="L2" t="n">
-        <v>3.732</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>1724.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1109.3</v>
+      </c>
       <c r="N2" t="n">
-        <v>158.9789</v>
+        <v>1027.3</v>
       </c>
       <c r="O2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>440.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1834.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>230</v>
+      </c>
       <c r="R2" t="n">
-        <v>0.9193</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>58.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>714</v>
+      </c>
+      <c r="T2" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>27.9</v>
+      </c>
       <c r="V2" t="n">
-        <v>21.062</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>234.7597</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.5146</v>
+      </c>
       <c r="D3" t="n">
-        <v>19.4859</v>
+        <v>317.5015</v>
       </c>
       <c r="E3" t="n">
-        <v>27.9533</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>134.9719</v>
+      </c>
+      <c r="F3" t="n">
+        <v>560.257400000001</v>
+      </c>
       <c r="G3" t="n">
-        <v>1.4754</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>291.7732</v>
+      </c>
+      <c r="H3" t="n">
+        <v>184.5315</v>
+      </c>
+      <c r="I3" t="n">
+        <v>420.293</v>
+      </c>
+      <c r="J3" t="n">
+        <v>363.9728</v>
+      </c>
+      <c r="K3" t="n">
+        <v>712.0979</v>
+      </c>
       <c r="L3" t="n">
-        <v>6.9302</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>2167.1092</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1380.4133</v>
+      </c>
       <c r="N3" t="n">
-        <v>172.0143</v>
+        <v>1273.8429</v>
       </c>
       <c r="O3" t="n">
-        <v>9.579700000000001</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>548.135</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2237.4884</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>289.966</v>
+      </c>
       <c r="R3" t="n">
-        <v>3.1025</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>79.0034000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>855.8059</v>
+      </c>
+      <c r="T3" t="n">
+        <v>49.1895</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44.7393</v>
+      </c>
       <c r="V3" t="n">
-        <v>11.4017</v>
+        <v>262.9566</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>309.83534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.47967</v>
+      </c>
       <c r="D4" t="n">
-        <v>21.5049</v>
+        <v>368.49092</v>
       </c>
       <c r="E4" t="n">
-        <v>33.3156</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>167.49196</v>
+      </c>
+      <c r="F4" t="n">
+        <v>634.55421</v>
+      </c>
       <c r="G4" t="n">
-        <v>1.1793</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>357.6256</v>
+      </c>
+      <c r="H4" t="n">
+        <v>249.9931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>355.54271</v>
+      </c>
+      <c r="J4" t="n">
+        <v>493.67614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>497.590279999998</v>
+      </c>
       <c r="L4" t="n">
-        <v>16.1279</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>2076.69291</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1499.48986</v>
+      </c>
       <c r="N4" t="n">
-        <v>175.6842</v>
+        <v>1500.5575</v>
       </c>
       <c r="O4" t="n">
-        <v>8.0314</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>733.86195</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2661.22435</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>326.42363</v>
+      </c>
       <c r="R4" t="n">
-        <v>4.4741</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>102.29352</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1021.04684</v>
+      </c>
+      <c r="T4" t="n">
+        <v>64.71327000000009</v>
+      </c>
+      <c r="U4" t="n">
+        <v>47.6</v>
+      </c>
       <c r="V4" t="n">
-        <v>12.3136</v>
+        <v>356.45771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.11875</v>
+        <v>464.99155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5249200000000001</v>
+        <v>26.00759</v>
       </c>
       <c r="D5" t="n">
-        <v>21.08004</v>
+        <v>533.25985</v>
       </c>
       <c r="E5" t="n">
-        <v>33.92315</v>
+        <v>189.59491</v>
       </c>
       <c r="F5" t="n">
-        <v>16.10829</v>
+        <v>760.30434</v>
       </c>
       <c r="G5" t="n">
-        <v>40.70092</v>
+        <v>470.48681</v>
       </c>
       <c r="H5" t="n">
-        <v>3.62096</v>
+        <v>362.56235</v>
       </c>
       <c r="I5" t="n">
-        <v>10.71889</v>
+        <v>358.51149</v>
       </c>
       <c r="J5" t="n">
-        <v>8.28458</v>
+        <v>622.07623</v>
       </c>
       <c r="K5" t="n">
-        <v>16.98754</v>
+        <v>887.110989999999</v>
       </c>
       <c r="L5" t="n">
-        <v>52.67698</v>
+        <v>2920.16311</v>
       </c>
       <c r="M5" t="n">
-        <v>32.29161</v>
+        <v>1930.86612</v>
       </c>
       <c r="N5" t="n">
-        <v>176.51119</v>
+        <v>1647.64142</v>
       </c>
       <c r="O5" t="n">
-        <v>14.93471</v>
+        <v>930.29344</v>
       </c>
       <c r="P5" t="n">
-        <v>184.10447</v>
+        <v>2965.55684</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.10658</v>
+        <v>472.93944</v>
       </c>
       <c r="R5" t="n">
-        <v>2.66416</v>
+        <v>136.816</v>
       </c>
       <c r="S5" t="n">
-        <v>5.607</v>
+        <v>1156.83216</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63326</v>
+        <v>71.15912</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0902</v>
+        <v>92.94213000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>9.55355</v>
+        <v>455.50655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.2282</v>
+        <v>501.65594</v>
       </c>
       <c r="C6" t="n">
-        <v>1.65006</v>
+        <v>27.08074</v>
       </c>
       <c r="D6" t="n">
-        <v>59.66424</v>
+        <v>626.72672</v>
       </c>
       <c r="E6" t="n">
-        <v>60.70493</v>
+        <v>221.13085</v>
       </c>
       <c r="F6" t="n">
-        <v>82.52634999999999</v>
+        <v>858.2811</v>
       </c>
       <c r="G6" t="n">
-        <v>76.01539</v>
+        <v>525.65193</v>
       </c>
       <c r="H6" t="n">
-        <v>16.55665</v>
+        <v>488.00856</v>
       </c>
       <c r="I6" t="n">
-        <v>57.65147</v>
+        <v>380.2496</v>
       </c>
       <c r="J6" t="n">
-        <v>34.00835</v>
+        <v>699.92201</v>
       </c>
       <c r="K6" t="n">
-        <v>94.09421</v>
+        <v>878.162679999998</v>
       </c>
       <c r="L6" t="n">
-        <v>201.05402</v>
+        <v>2991.55822</v>
       </c>
       <c r="M6" t="n">
-        <v>96.86577</v>
+        <v>2007.65856</v>
       </c>
       <c r="N6" t="n">
-        <v>317.14644</v>
+        <v>1697.16365</v>
       </c>
       <c r="O6" t="n">
-        <v>54.60406</v>
+        <v>1074.80206</v>
       </c>
       <c r="P6" t="n">
-        <v>496.15387</v>
+        <v>3078.23738</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.47686</v>
+        <v>555.22673</v>
       </c>
       <c r="R6" t="n">
-        <v>9.91826</v>
+        <v>194.11946</v>
       </c>
       <c r="S6" t="n">
-        <v>162.70235</v>
+        <v>1215.98478</v>
       </c>
       <c r="T6" t="n">
-        <v>11.74055</v>
+        <v>81.25371</v>
       </c>
       <c r="U6" t="n">
-        <v>1.16174</v>
+        <v>201.67472</v>
       </c>
       <c r="V6" t="n">
-        <v>33.33129</v>
+        <v>544.56486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.82098</v>
+        <v>541.5278</v>
       </c>
       <c r="C7" t="n">
-        <v>2.20814</v>
+        <v>38.8015</v>
       </c>
       <c r="D7" t="n">
-        <v>65.79544</v>
+        <v>644.9654</v>
       </c>
       <c r="E7" t="n">
-        <v>69.61037</v>
+        <v>226.0759</v>
       </c>
       <c r="F7" t="n">
-        <v>97.66999</v>
+        <v>919.1726</v>
       </c>
       <c r="G7" t="n">
-        <v>100.63889</v>
+        <v>492.89</v>
       </c>
       <c r="H7" t="n">
-        <v>19.71314</v>
+        <v>536.5608</v>
       </c>
       <c r="I7" t="n">
-        <v>63.77261</v>
+        <v>376.2916</v>
       </c>
       <c r="J7" t="n">
-        <v>38.88592</v>
+        <v>759.7497</v>
       </c>
       <c r="K7" t="n">
-        <v>120.57173</v>
+        <v>894.0965999999989</v>
       </c>
       <c r="L7" t="n">
-        <v>282.13847</v>
+        <v>2997.9342</v>
       </c>
       <c r="M7" t="n">
-        <v>151.92544</v>
+        <v>1994.5807</v>
       </c>
       <c r="N7" t="n">
-        <v>389.37299</v>
+        <v>1760.7204</v>
       </c>
       <c r="O7" t="n">
-        <v>62.39036</v>
+        <v>1178.3047</v>
       </c>
       <c r="P7" t="n">
-        <v>670</v>
+        <v>3215.2634</v>
       </c>
       <c r="Q7" t="n">
-        <v>59.00654</v>
+        <v>586.077799999999</v>
       </c>
       <c r="R7" t="n">
-        <v>18.19918</v>
+        <v>175.6383</v>
       </c>
       <c r="S7" t="n">
-        <v>258.52499</v>
+        <v>1292.385</v>
       </c>
       <c r="T7" t="n">
-        <v>11.67102</v>
+        <v>122.4446</v>
       </c>
       <c r="U7" t="n">
-        <v>2.41908</v>
+        <v>260.1809</v>
       </c>
       <c r="V7" t="n">
-        <v>34.76425</v>
+        <v>590.5744999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.6178</v>
+        <v>612.9389</v>
       </c>
       <c r="C8" t="n">
-        <v>4.7718</v>
+        <v>46.1471</v>
       </c>
       <c r="D8" t="n">
-        <v>78.3798</v>
+        <v>770.778600000001</v>
       </c>
       <c r="E8" t="n">
-        <v>78.37820000000001</v>
+        <v>252.7313</v>
       </c>
       <c r="F8" t="n">
-        <v>132.0272</v>
+        <v>947.748</v>
       </c>
       <c r="G8" t="n">
-        <v>112.4437</v>
+        <v>553.2041</v>
       </c>
       <c r="H8" t="n">
-        <v>25.4357</v>
+        <v>889.1069</v>
       </c>
       <c r="I8" t="n">
-        <v>88.3719</v>
+        <v>386.7479</v>
       </c>
       <c r="J8" t="n">
-        <v>57.1781</v>
+        <v>882.9362</v>
       </c>
       <c r="K8" t="n">
-        <v>154.2295</v>
+        <v>1116.0379</v>
       </c>
       <c r="L8" t="n">
-        <v>383.9963</v>
+        <v>3531.4712</v>
       </c>
       <c r="M8" t="n">
-        <v>216.2848</v>
+        <v>2301.9149</v>
       </c>
       <c r="N8" t="n">
-        <v>479.9081</v>
+        <v>1718.2565</v>
       </c>
       <c r="O8" t="n">
-        <v>83.92359999999999</v>
+        <v>1321.1214</v>
       </c>
       <c r="P8" t="n">
-        <v>846.5892</v>
+        <v>3177.5923</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.03579999999999</v>
+        <v>709.9569</v>
       </c>
       <c r="R8" t="n">
-        <v>24.1103</v>
+        <v>204.3107</v>
       </c>
       <c r="S8" t="n">
-        <v>334.0234</v>
+        <v>1288.2387</v>
       </c>
       <c r="T8" t="n">
-        <v>14.8311</v>
+        <v>111.5905</v>
       </c>
       <c r="U8" t="n">
-        <v>3.0257</v>
+        <v>608.7128</v>
       </c>
       <c r="V8" t="n">
-        <v>47.0828</v>
+        <v>645.6233999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55.44787</v>
+        <v>482.364</v>
       </c>
       <c r="C9" t="n">
-        <v>9.694929999999999</v>
+        <v>62.145</v>
       </c>
       <c r="D9" t="n">
-        <v>97.63079</v>
+        <v>750.092</v>
       </c>
       <c r="E9" t="n">
-        <v>73.09612</v>
+        <v>241.415</v>
       </c>
       <c r="F9" t="n">
-        <v>150.4233</v>
+        <v>930.22</v>
       </c>
       <c r="G9" t="n">
-        <v>117.61679</v>
+        <v>565.186</v>
       </c>
       <c r="H9" t="n">
-        <v>34.50964</v>
+        <v>1093.2</v>
       </c>
       <c r="I9" t="n">
-        <v>93.94531000000001</v>
+        <v>375.288</v>
       </c>
       <c r="J9" t="n">
-        <v>91.43626</v>
+        <v>982.954</v>
       </c>
       <c r="K9" t="n">
-        <v>173.63049</v>
+        <v>1158.456</v>
       </c>
       <c r="L9" t="n">
-        <v>485.8797</v>
+        <v>3636.47</v>
       </c>
       <c r="M9" t="n">
-        <v>298.61245</v>
+        <v>2384.121</v>
       </c>
       <c r="N9" t="n">
-        <v>585.09166</v>
+        <v>1572.498</v>
       </c>
       <c r="O9" t="n">
-        <v>130.70489</v>
+        <v>1470.785</v>
       </c>
       <c r="P9" t="n">
-        <v>1041.82279</v>
+        <v>2983.626</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.66672</v>
+        <v>688.907</v>
       </c>
       <c r="R9" t="n">
-        <v>29.50949</v>
+        <v>215.812</v>
       </c>
       <c r="S9" t="n">
-        <v>414.15702</v>
+        <v>1253.339</v>
       </c>
       <c r="T9" t="n">
-        <v>20.74848</v>
+        <v>107.025</v>
       </c>
       <c r="U9" t="n">
-        <v>4.18858</v>
+        <v>865.047</v>
       </c>
       <c r="V9" t="n">
-        <v>51.67082</v>
+        <v>718.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.4306</v>
+        <v>436.3989</v>
       </c>
       <c r="C10" t="n">
-        <v>6.7503</v>
+        <v>59.7995</v>
       </c>
       <c r="D10" t="n">
-        <v>176.8686</v>
+        <v>760.4827</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9699</v>
+        <v>283.7951</v>
       </c>
       <c r="F10" t="n">
-        <v>304.9941</v>
+        <v>867.9136</v>
       </c>
       <c r="G10" t="n">
-        <v>178.223</v>
+        <v>628.188</v>
       </c>
       <c r="H10" t="n">
-        <v>88.3004</v>
+        <v>1326.518</v>
       </c>
       <c r="I10" t="n">
-        <v>213.9141</v>
+        <v>377.9891</v>
       </c>
       <c r="J10" t="n">
-        <v>174.1042</v>
+        <v>1040.3996</v>
       </c>
       <c r="K10" t="n">
-        <v>513.5984</v>
+        <v>1211.4996</v>
       </c>
       <c r="L10" t="n">
-        <v>1204.3132</v>
+        <v>3834.77529999999</v>
       </c>
       <c r="M10" t="n">
-        <v>656.1586</v>
+        <v>2463.3967</v>
       </c>
       <c r="N10" t="n">
-        <v>857.7449</v>
+        <v>1662.5198</v>
       </c>
       <c r="O10" t="n">
-        <v>283.114</v>
+        <v>1591.4699</v>
       </c>
       <c r="P10" t="n">
-        <v>1487.2851</v>
+        <v>3055.7511</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.6693</v>
+        <v>666.5661</v>
       </c>
       <c r="R10" t="n">
-        <v>48.2798</v>
+        <v>179.8768</v>
       </c>
       <c r="S10" t="n">
-        <v>548.9097</v>
+        <v>1237.3095</v>
       </c>
       <c r="T10" t="n">
-        <v>35.5046</v>
+        <v>105.932</v>
       </c>
       <c r="U10" t="n">
-        <v>15.8316</v>
+        <v>1137.1335</v>
       </c>
       <c r="V10" t="n">
-        <v>100.6922</v>
+        <v>780.071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.21061</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.63695</v>
-      </c>
+        <v>88.39619999999999</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>189.06622</v>
+        <v>121.636</v>
       </c>
       <c r="E11" t="n">
-        <v>109.08566</v>
+        <v>99.0919</v>
       </c>
       <c r="F11" t="n">
-        <v>308.13607</v>
+        <v>101.1325</v>
       </c>
       <c r="G11" t="n">
-        <v>186.52143</v>
+        <v>171.0133</v>
       </c>
       <c r="H11" t="n">
-        <v>93.85346</v>
+        <v>140.0915</v>
       </c>
       <c r="I11" t="n">
-        <v>222.11853</v>
+        <v>30.4778</v>
       </c>
       <c r="J11" t="n">
-        <v>217.53362</v>
+        <v>133.9867</v>
       </c>
       <c r="K11" t="n">
-        <v>513.98323</v>
+        <v>348.2427</v>
       </c>
       <c r="L11" t="n">
-        <v>1302.05086</v>
+        <v>714.9807</v>
       </c>
       <c r="M11" t="n">
-        <v>752.44666</v>
+        <v>328.2828</v>
       </c>
       <c r="N11" t="n">
-        <v>854.45703</v>
+        <v>491.9252</v>
       </c>
       <c r="O11" t="n">
-        <v>359.13351</v>
+        <v>292.8773</v>
       </c>
       <c r="P11" t="n">
-        <v>1483.0281</v>
+        <v>557.1899</v>
       </c>
       <c r="Q11" t="n">
-        <v>177.49475</v>
+        <v>102.3644</v>
       </c>
       <c r="R11" t="n">
-        <v>43.2548</v>
+        <v>40.5754</v>
       </c>
       <c r="S11" t="n">
-        <v>562.84369</v>
+        <v>113.4517</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54692</v>
+        <v>10.6041</v>
       </c>
       <c r="U11" t="n">
-        <v>19.737</v>
+        <v>62.3553</v>
       </c>
       <c r="V11" t="n">
-        <v>110.67983</v>
+        <v>210.7834</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.4</v>
+        <v>41.2354</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3</v>
+        <v>-0.8722</v>
       </c>
       <c r="D12" t="n">
-        <v>245.9</v>
+        <v>127.4453</v>
       </c>
       <c r="E12" t="n">
-        <v>126.8</v>
+        <v>98.6352</v>
       </c>
       <c r="F12" t="n">
-        <v>400.9</v>
+        <v>48.7284</v>
       </c>
       <c r="G12" t="n">
-        <v>237.1</v>
+        <v>157.9294</v>
       </c>
       <c r="H12" t="n">
-        <v>142.9</v>
+        <v>148.9479</v>
       </c>
       <c r="I12" t="n">
-        <v>292.8</v>
+        <v>-12.1382</v>
       </c>
       <c r="J12" t="n">
-        <v>303.1</v>
+        <v>192.7131</v>
       </c>
       <c r="K12" t="n">
-        <v>561.9</v>
+        <v>288.9202</v>
       </c>
       <c r="L12" t="n">
-        <v>1724.1</v>
+        <v>664.8029</v>
       </c>
       <c r="M12" t="n">
-        <v>1109.3</v>
+        <v>354.9134</v>
       </c>
       <c r="N12" t="n">
-        <v>1027.3</v>
+        <v>290.5132</v>
       </c>
       <c r="O12" t="n">
-        <v>440.9</v>
+        <v>348.7741</v>
       </c>
       <c r="P12" t="n">
-        <v>1834.8</v>
+        <v>372.8401</v>
       </c>
       <c r="Q12" t="n">
-        <v>230</v>
+        <v>110.94</v>
       </c>
       <c r="R12" t="n">
-        <v>58.6</v>
+        <v>59.0021</v>
       </c>
       <c r="S12" t="n">
-        <v>714</v>
+        <v>103.7621</v>
       </c>
       <c r="T12" t="n">
-        <v>39.5</v>
+        <v>7.172</v>
       </c>
       <c r="U12" t="n">
-        <v>27.9</v>
+        <v>102.9215</v>
       </c>
       <c r="V12" t="n">
-        <v>158.9</v>
+        <v>213.1139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.7597</v>
+        <v>61.709</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5146</v>
+        <v>-0.8715000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>317.5015</v>
+        <v>81.4136</v>
       </c>
       <c r="E13" t="n">
-        <v>134.9719</v>
+        <v>109.1751</v>
       </c>
       <c r="F13" t="n">
-        <v>560.257400000001</v>
+        <v>31.815</v>
       </c>
       <c r="G13" t="n">
-        <v>291.7732</v>
+        <v>185.3601</v>
       </c>
       <c r="H13" t="n">
-        <v>184.5315</v>
+        <v>36.9036</v>
       </c>
       <c r="I13" t="n">
-        <v>420.293</v>
+        <v>-53.4818</v>
       </c>
       <c r="J13" t="n">
-        <v>363.9728</v>
+        <v>272.7758</v>
       </c>
       <c r="K13" t="n">
-        <v>712.0979</v>
+        <v>299.0827</v>
       </c>
       <c r="L13" t="n">
-        <v>2167.1092</v>
+        <v>922.6887</v>
       </c>
       <c r="M13" t="n">
-        <v>1380.4133</v>
+        <v>586.2812</v>
       </c>
       <c r="N13" t="n">
-        <v>1273.8429</v>
+        <v>436.3831</v>
       </c>
       <c r="O13" t="n">
-        <v>548.135</v>
+        <v>510.4037</v>
       </c>
       <c r="P13" t="n">
-        <v>2237.4884</v>
+        <v>378.2984</v>
       </c>
       <c r="Q13" t="n">
-        <v>289.966</v>
+        <v>68.2512</v>
       </c>
       <c r="R13" t="n">
-        <v>79.0034000000001</v>
+        <v>70.21040000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>855.8059</v>
+        <v>-45.6538</v>
       </c>
       <c r="T13" t="n">
-        <v>49.1895</v>
+        <v>5.7749</v>
       </c>
       <c r="U13" t="n">
-        <v>44.7393</v>
+        <v>-7.2169</v>
       </c>
       <c r="V13" t="n">
-        <v>262.9566</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>309.83534</v>
-      </c>
-      <c r="C14" t="n">
-        <v>23.47967</v>
-      </c>
-      <c r="D14" t="n">
-        <v>368.49092</v>
-      </c>
-      <c r="E14" t="n">
-        <v>167.49196</v>
-      </c>
-      <c r="F14" t="n">
-        <v>634.55421</v>
-      </c>
-      <c r="G14" t="n">
-        <v>357.6256</v>
-      </c>
-      <c r="H14" t="n">
-        <v>249.9931</v>
-      </c>
-      <c r="I14" t="n">
-        <v>355.54271</v>
-      </c>
-      <c r="J14" t="n">
-        <v>493.67614</v>
-      </c>
-      <c r="K14" t="n">
-        <v>497.590279999998</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2076.69291</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1499.48986</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1500.5575</v>
-      </c>
-      <c r="O14" t="n">
-        <v>733.86195</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2661.22435</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>326.42363</v>
-      </c>
-      <c r="R14" t="n">
-        <v>102.29352</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1021.04684</v>
-      </c>
-      <c r="T14" t="n">
-        <v>64.71327000000009</v>
-      </c>
-      <c r="U14" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>356.45771</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>464.99155</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.00759</v>
-      </c>
-      <c r="D15" t="n">
-        <v>533.25985</v>
-      </c>
-      <c r="E15" t="n">
-        <v>189.59491</v>
-      </c>
-      <c r="F15" t="n">
-        <v>760.30434</v>
-      </c>
-      <c r="G15" t="n">
-        <v>470.48681</v>
-      </c>
-      <c r="H15" t="n">
-        <v>362.56235</v>
-      </c>
-      <c r="I15" t="n">
-        <v>358.51149</v>
-      </c>
-      <c r="J15" t="n">
-        <v>622.07623</v>
-      </c>
-      <c r="K15" t="n">
-        <v>887.110989999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2920.16311</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1930.86612</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1647.64142</v>
-      </c>
-      <c r="O15" t="n">
-        <v>930.29344</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2965.55684</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>472.93944</v>
-      </c>
-      <c r="R15" t="n">
-        <v>136.816</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1156.83216</v>
-      </c>
-      <c r="T15" t="n">
-        <v>71.15912</v>
-      </c>
-      <c r="U15" t="n">
-        <v>92.94213000000001</v>
-      </c>
-      <c r="V15" t="n">
-        <v>455.50655</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>501.65594</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.08074</v>
-      </c>
-      <c r="D16" t="n">
-        <v>626.72672</v>
-      </c>
-      <c r="E16" t="n">
-        <v>221.13085</v>
-      </c>
-      <c r="F16" t="n">
-        <v>858.2811</v>
-      </c>
-      <c r="G16" t="n">
-        <v>525.65193</v>
-      </c>
-      <c r="H16" t="n">
-        <v>488.00856</v>
-      </c>
-      <c r="I16" t="n">
-        <v>380.2496</v>
-      </c>
-      <c r="J16" t="n">
-        <v>699.92201</v>
-      </c>
-      <c r="K16" t="n">
-        <v>878.162679999998</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2991.55822</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2007.65856</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1697.16365</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1074.80206</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3078.23738</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>555.22673</v>
-      </c>
-      <c r="R16" t="n">
-        <v>194.11946</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1215.98478</v>
-      </c>
-      <c r="T16" t="n">
-        <v>81.25371</v>
-      </c>
-      <c r="U16" t="n">
-        <v>201.67472</v>
-      </c>
-      <c r="V16" t="n">
-        <v>544.56486</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>541.5278</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38.8015</v>
-      </c>
-      <c r="D17" t="n">
-        <v>644.9654</v>
-      </c>
-      <c r="E17" t="n">
-        <v>226.0759</v>
-      </c>
-      <c r="F17" t="n">
-        <v>919.1726</v>
-      </c>
-      <c r="G17" t="n">
-        <v>492.89</v>
-      </c>
-      <c r="H17" t="n">
-        <v>536.5608</v>
-      </c>
-      <c r="I17" t="n">
-        <v>376.2916</v>
-      </c>
-      <c r="J17" t="n">
-        <v>759.7497</v>
-      </c>
-      <c r="K17" t="n">
-        <v>894.0965999999989</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2997.9342</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1994.5807</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1760.7204</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1178.3047</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3215.2634</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>586.077799999999</v>
-      </c>
-      <c r="R17" t="n">
-        <v>175.6383</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1292.385</v>
-      </c>
-      <c r="T17" t="n">
-        <v>122.4446</v>
-      </c>
-      <c r="U17" t="n">
-        <v>260.1809</v>
-      </c>
-      <c r="V17" t="n">
-        <v>590.5744999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>612.9389</v>
-      </c>
-      <c r="C18" t="n">
-        <v>46.1471</v>
-      </c>
-      <c r="D18" t="n">
-        <v>770.778600000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>252.7313</v>
-      </c>
-      <c r="F18" t="n">
-        <v>947.748</v>
-      </c>
-      <c r="G18" t="n">
-        <v>553.2041</v>
-      </c>
-      <c r="H18" t="n">
-        <v>889.1069</v>
-      </c>
-      <c r="I18" t="n">
-        <v>386.7479</v>
-      </c>
-      <c r="J18" t="n">
-        <v>882.9362</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1116.0379</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3531.4712</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2301.9149</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1718.2565</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1321.1214</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3177.5923</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>709.9569</v>
-      </c>
-      <c r="R18" t="n">
-        <v>204.3107</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1288.2387</v>
-      </c>
-      <c r="T18" t="n">
-        <v>111.5905</v>
-      </c>
-      <c r="U18" t="n">
-        <v>608.7128</v>
-      </c>
-      <c r="V18" t="n">
-        <v>645.6233999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>482.364</v>
-      </c>
-      <c r="C19" t="n">
-        <v>62.145</v>
-      </c>
-      <c r="D19" t="n">
-        <v>750.092</v>
-      </c>
-      <c r="E19" t="n">
-        <v>241.415</v>
-      </c>
-      <c r="F19" t="n">
-        <v>930.22</v>
-      </c>
-      <c r="G19" t="n">
-        <v>565.186</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1093.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>375.288</v>
-      </c>
-      <c r="J19" t="n">
-        <v>982.954</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1158.456</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3636.47</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2384.121</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1572.498</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1470.785</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2983.626</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>688.907</v>
-      </c>
-      <c r="R19" t="n">
-        <v>215.812</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1253.339</v>
-      </c>
-      <c r="T19" t="n">
-        <v>107.025</v>
-      </c>
-      <c r="U19" t="n">
-        <v>865.047</v>
-      </c>
-      <c r="V19" t="n">
-        <v>718.59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>436.3989</v>
-      </c>
-      <c r="C20" t="n">
-        <v>59.7995</v>
-      </c>
-      <c r="D20" t="n">
-        <v>760.4827</v>
-      </c>
-      <c r="E20" t="n">
-        <v>283.7951</v>
-      </c>
-      <c r="F20" t="n">
-        <v>867.9136</v>
-      </c>
-      <c r="G20" t="n">
-        <v>628.188</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1326.518</v>
-      </c>
-      <c r="I20" t="n">
-        <v>377.9891</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1040.3996</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1211.4996</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3834.77529999999</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2463.3967</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1662.5198</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1591.4699</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3055.7511</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>666.5661</v>
-      </c>
-      <c r="R20" t="n">
-        <v>179.8768</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1237.3095</v>
-      </c>
-      <c r="T20" t="n">
-        <v>105.932</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1137.1335</v>
-      </c>
-      <c r="V20" t="n">
-        <v>780.071</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>88.39619999999999</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>121.636</v>
-      </c>
-      <c r="E21" t="n">
-        <v>99.0919</v>
-      </c>
-      <c r="F21" t="n">
-        <v>101.1325</v>
-      </c>
-      <c r="G21" t="n">
-        <v>171.0133</v>
-      </c>
-      <c r="H21" t="n">
-        <v>140.0915</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30.4778</v>
-      </c>
-      <c r="J21" t="n">
-        <v>133.9867</v>
-      </c>
-      <c r="K21" t="n">
-        <v>348.2427</v>
-      </c>
-      <c r="L21" t="n">
-        <v>714.9807</v>
-      </c>
-      <c r="M21" t="n">
-        <v>328.2828</v>
-      </c>
-      <c r="N21" t="n">
-        <v>491.9252</v>
-      </c>
-      <c r="O21" t="n">
-        <v>292.8773</v>
-      </c>
-      <c r="P21" t="n">
-        <v>557.1899</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>102.3644</v>
-      </c>
-      <c r="R21" t="n">
-        <v>40.5754</v>
-      </c>
-      <c r="S21" t="n">
-        <v>113.4517</v>
-      </c>
-      <c r="T21" t="n">
-        <v>10.6041</v>
-      </c>
-      <c r="U21" t="n">
-        <v>62.3553</v>
-      </c>
-      <c r="V21" t="n">
-        <v>210.7834</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>41.2354</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.8722</v>
-      </c>
-      <c r="D22" t="n">
-        <v>127.4453</v>
-      </c>
-      <c r="E22" t="n">
-        <v>98.6352</v>
-      </c>
-      <c r="F22" t="n">
-        <v>48.7284</v>
-      </c>
-      <c r="G22" t="n">
-        <v>157.9294</v>
-      </c>
-      <c r="H22" t="n">
-        <v>148.9479</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-12.1382</v>
-      </c>
-      <c r="J22" t="n">
-        <v>192.7131</v>
-      </c>
-      <c r="K22" t="n">
-        <v>288.9202</v>
-      </c>
-      <c r="L22" t="n">
-        <v>664.8029</v>
-      </c>
-      <c r="M22" t="n">
-        <v>354.9134</v>
-      </c>
-      <c r="N22" t="n">
-        <v>290.5132</v>
-      </c>
-      <c r="O22" t="n">
-        <v>348.7741</v>
-      </c>
-      <c r="P22" t="n">
-        <v>372.8401</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>110.94</v>
-      </c>
-      <c r="R22" t="n">
-        <v>59.0021</v>
-      </c>
-      <c r="S22" t="n">
-        <v>103.7621</v>
-      </c>
-      <c r="T22" t="n">
-        <v>7.172</v>
-      </c>
-      <c r="U22" t="n">
-        <v>102.9215</v>
-      </c>
-      <c r="V22" t="n">
-        <v>213.1139</v>
+        <v>271.7641</v>
       </c>
     </row>
   </sheetData>
